--- a/core/exporter/production/testing/expected/03_TestProductionEmptyCodedStatementSameRowLength_CODED.xlsx
+++ b/core/exporter/production/testing/expected/03_TestProductionEmptyCodedStatementSameRowLength_CODED.xlsx
@@ -673,7 +673,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[The 'Encoded Statement' field does not contain IG Script-encoded content.]</t>
+          <t>The 'Encoded Statement' field does not contain IG Script-encoded content.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -725,12 +730,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -875,7 +880,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[1.2]</t>
+          <t>[OR].Bdir.[2.2]</t>
         </is>
       </c>
     </row>
@@ -927,12 +932,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1077,7 +1082,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[1.1]</t>
+          <t>[OR].Bdir.[2.1]</t>
         </is>
       </c>
     </row>
@@ -1129,12 +1134,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1331,12 +1336,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1481,7 +1486,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[3.2]</t>
+          <t>[OR].Bdir.[4.2]</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1538,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1683,7 +1688,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[3.1]</t>
+          <t>[OR].Bdir.[4.1]</t>
         </is>
       </c>
     </row>
